--- a/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Hipothalamus_UNIQUE.xlsx
+++ b/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Hipothalamus_UNIQUE.xlsx
@@ -14,825 +14,1644 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
   <si>
     <t>Accession Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>SMKY_MOUSE</t>
   </si>
   <si>
+    <t>Sperm motility kinase Y (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>MELT_MOUSE</t>
   </si>
   <si>
+    <t>Ventricular zone-expressed PH domain-containing protein 1 (Protein melted homolog)</t>
+  </si>
+  <si>
     <t>TBC25_MOUSE</t>
   </si>
   <si>
+    <t>TBC1 domain family member 25</t>
+  </si>
+  <si>
     <t>ZMYM4_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger MYM-type protein 4 (Zinc finger protein 262)</t>
+  </si>
+  <si>
     <t>PTPRF_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein phosphatase F (EC 3.1.3.48) (Leukocyte common antigen related) (LAR)</t>
+  </si>
+  <si>
     <t>AF9_MOUSE</t>
   </si>
   <si>
+    <t>Protein AF-9 (Myeloid/lymphoid or mixed-lineage leukemia translocated to chromosome 3 protein homolog)</t>
+  </si>
+  <si>
     <t>TBB1_MOUSE</t>
   </si>
   <si>
+    <t>Tubulin beta-1 chain</t>
+  </si>
+  <si>
     <t>RTF1_MOUSE</t>
   </si>
   <si>
+    <t>RNA polymerase-associated protein RTF1 homolog</t>
+  </si>
+  <si>
     <t>MGAP_MOUSE</t>
   </si>
   <si>
+    <t>MAX gene-associated protein</t>
+  </si>
+  <si>
     <t>TRM1L_MOUSE</t>
   </si>
   <si>
+    <t>TRMT1-like protein (EC 2.1.1.-)</t>
+  </si>
+  <si>
     <t>VW5B1_MOUSE</t>
   </si>
   <si>
+    <t>von Willebrand factor A domain-containing protein 5B1</t>
+  </si>
+  <si>
     <t>MRP3_MOUSE</t>
   </si>
   <si>
+    <t>Canalicular multispecific organic anion transporter 2 (ATP-binding cassette sub-family C member 3) (Multidrug resistance-associated protein 3)</t>
+  </si>
+  <si>
     <t>DOCK5_MOUSE</t>
   </si>
   <si>
+    <t>Dedicator of cytokinesis protein 5 (Lens rupture protein 2) (Rupture of lens cataract protein)</t>
+  </si>
+  <si>
     <t>CLIP3_MOUSE</t>
   </si>
   <si>
+    <t>CAP-Gly domain-containing linker protein 3 (Cytoplasmic linker protein 170-related 59 kDa protein) (CLIP-170-related 59 kDa protein) (CLIPR-59)</t>
+  </si>
+  <si>
     <t>ZBED6_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger BED domain-containing protein 6 (Muscle growth regulator) (MGR)</t>
+  </si>
+  <si>
     <t>SLIP_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear GTPase SLIP-GC (EC 3.6.1.-) (Speckled-like pattern in the germinal center)</t>
+  </si>
+  <si>
     <t>TALD3_MOUSE</t>
   </si>
   <si>
+    <t>Protein TALPID3</t>
+  </si>
+  <si>
     <t>CECR2_MOUSE</t>
   </si>
   <si>
+    <t>Cat eye syndrome critical region protein 2 homolog</t>
+  </si>
+  <si>
     <t>AL3B2_MOUSE</t>
   </si>
   <si>
+    <t>Aldehyde dehydrogenase family 3 member B2 (EC 1.2.1.3) (Aldehyde dehydrogenase 8)</t>
+  </si>
+  <si>
     <t>RFIP2_MOUSE</t>
   </si>
   <si>
+    <t>Rab11 family-interacting protein 2 (Rab11-FIP2)</t>
+  </si>
+  <si>
     <t>RBPJL_MOUSE</t>
   </si>
   <si>
+    <t>Recombining binding protein suppressor of hairless-like protein (Transcription factor RBP-L)</t>
+  </si>
+  <si>
     <t>FOLH1_MOUSE</t>
   </si>
   <si>
+    <t>Glutamate carboxypeptidase 2 (EC 3.4.17.21) (Folate hydrolase 1) (Folylpoly-gamma-glutamate carboxypeptidase) (FGCP) (Glutamate carboxypeptidase II) (GCPII) (Membrane glutamate carboxypeptidase) (mGCP) (N-acetylated-alpha-linked acidic dipeptidase I) (NAALADase I) (Prostate-specific membrane antigen homolog) (Pteroylpoly-gamma-glutamate carboxypeptidase)</t>
+  </si>
+  <si>
     <t>BHMT1_MOUSE</t>
   </si>
   <si>
+    <t>Betaine--homocysteine S-methyltransferase 1 (EC 2.1.1.5)</t>
+  </si>
+  <si>
     <t>LIPB2_MOUSE</t>
   </si>
   <si>
+    <t>Liprin-beta-2 (Coiled-coil-like protein 1) (Protein tyrosine phosphatase receptor type f polypeptide-interacting protein-binding protein 2) (PTPRF-interacting protein-binding protein 2)</t>
+  </si>
+  <si>
     <t>KLF9_MOUSE</t>
   </si>
   <si>
+    <t>Krueppel-like factor 9 (Basic transcription element-binding protein 1) (BTE-binding protein 1) (GC-box-binding protein 1) (Transcription factor BTEB1)</t>
+  </si>
+  <si>
     <t>SDC4_MOUSE</t>
   </si>
   <si>
+    <t>Syndecan-4 (SYND4) (Ryudocan core protein)</t>
+  </si>
+  <si>
     <t>BYST_MOUSE</t>
   </si>
   <si>
+    <t>Bystin</t>
+  </si>
+  <si>
     <t>RHG06_MOUSE</t>
   </si>
   <si>
+    <t>Rho GTPase-activating protein 6 (Rho-type GTPase-activating protein 6) (Rho-type GTPase-activating protein RhoGAPX-1)</t>
+  </si>
+  <si>
     <t>DPM1_MOUSE</t>
   </si>
   <si>
+    <t>Dolichol-phosphate mannosyltransferase subunit 1 (EC 2.4.1.83) (Dolichol-phosphate mannose synthase subunit 1) (DPM synthase subunit 1) (Dolichyl-phosphate beta-D-mannosyltransferase subunit 1) (Mannose-P-dolichol synthase subunit 1) (MPD synthase)</t>
+  </si>
+  <si>
     <t>SHOC2_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat protein SHOC-2 (Protein soc-2 homolog) (Protein sur-8 homolog)</t>
+  </si>
+  <si>
     <t>PCDA4_MOUSE</t>
   </si>
   <si>
+    <t>Protocadherin alpha-4 (PCDH-alpha-4)</t>
+  </si>
+  <si>
     <t>FA10_MOUSE</t>
   </si>
   <si>
+    <t>Coagulation factor X (EC 3.4.21.6) (Stuart factor) [Cleaved into: Factor X light chain; Factor X heavy chain; Activated factor Xa heavy chain]</t>
+  </si>
+  <si>
     <t>IFNA2_MOUSE</t>
   </si>
   <si>
+    <t>Interferon alpha-2 (IFN-alpha-2)</t>
+  </si>
+  <si>
     <t>IL1A_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-1 alpha (IL-1 alpha)</t>
+  </si>
+  <si>
     <t>ARAF_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase A-Raf (EC 2.7.11.1) (Proto-oncogene A-Raf)</t>
+  </si>
+  <si>
     <t>S10AA_MOUSE</t>
   </si>
   <si>
+    <t>Protein S100-A10 (Calpactin I light chain) (Calpactin-1 light chain) (Cellular ligand of annexin II) (S100 calcium-binding protein A10) (p10 protein) (p11)</t>
+  </si>
+  <si>
     <t>ITB1_MOUSE</t>
   </si>
   <si>
+    <t>Integrin beta-1 (Fibronectin receptor subunit beta) (VLA-4 subunit beta) (CD antigen CD29)</t>
+  </si>
+  <si>
     <t>CADH1_MOUSE</t>
   </si>
   <si>
+    <t>Cadherin-1 (ARC-1) (Epithelial cadherin) (E-cadherin) (Uvomorulin) (CD antigen CD324) [Cleaved into: E-Cad/CTF1; E-Cad/CTF2; E-Cad/CTF3]</t>
+  </si>
+  <si>
     <t>7B2_MOUSE</t>
   </si>
   <si>
+    <t>Neuroendocrine protein 7B2 (Secretogranin V) (Secretogranin-5) (Secretory granule endocrine protein I) [Cleaved into: N-terminal peptide; C-terminal peptide]</t>
+  </si>
+  <si>
     <t>B3A2_MOUSE</t>
   </si>
   <si>
+    <t>Anion exchange protein 2 (AE 2) (Anion exchanger 2) (Band 3-related protein) (B3RP) (Non-erythroid band 3-like protein) (Solute carrier family 4 member 2)</t>
+  </si>
+  <si>
     <t>B3A3_MOUSE</t>
   </si>
   <si>
+    <t>Anion exchange protein 3 (AE 3) (Anion exchanger 3) (Neuronal band 3-like protein) (Solute carrier family 4 member 3)</t>
+  </si>
+  <si>
     <t>GNAT1_MOUSE</t>
   </si>
   <si>
+    <t>Guanine nucleotide-binding protein G(t) subunit alpha-1 (Transducin alpha-1 chain)</t>
+  </si>
+  <si>
     <t>P3_MOUSE</t>
   </si>
   <si>
+    <t>P3 protein (Solute carrier family 10 member 3)</t>
+  </si>
+  <si>
     <t>PAX3_MOUSE</t>
   </si>
   <si>
+    <t>Paired box protein Pax-3</t>
+  </si>
+  <si>
     <t>MA2A1_MOUSE</t>
   </si>
   <si>
+    <t>Alpha-mannosidase 2 (EC 3.2.1.114) (Golgi alpha-mannosidase II) (AMan II) (Man II) (Mannosidase alpha class 2A member 1) (Mannosyl-oligosaccharide 1,3-1,6-alpha-mannosidase)</t>
+  </si>
+  <si>
     <t>KLRBA_MOUSE</t>
   </si>
   <si>
+    <t>Killer cell lectin-like receptor subfamily B member 1A (NKR-P1A) (CD161 antigen-like family member A) (Lymphocyte antigen 55A) (Ly-55A) (NKR-P1.7) (Natural killer cell surface protein P1-2) (NKR-P1 2) (CD antigen CD161a)</t>
+  </si>
+  <si>
     <t>GRIK2_MOUSE</t>
   </si>
   <si>
+    <t>Glutamate receptor ionotropic, kainate 2 (GluK2) (Glutamate receptor 6) (GluR-6) (GluR6) (Glutamate receptor beta-2) (GluR beta-2)</t>
+  </si>
+  <si>
     <t>FYN_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase Fyn (EC 2.7.10.2) (Proto-oncogene c-Fyn) (p59-Fyn)</t>
+  </si>
+  <si>
     <t>MATK_MOUSE</t>
   </si>
   <si>
+    <t>Megakaryocyte-associated tyrosine-protein kinase (EC 2.7.10.2) (Protein kinase NTK) (Tyrosine-protein kinase CTK)</t>
+  </si>
+  <si>
     <t>PLIN2_MOUSE</t>
   </si>
   <si>
+    <t>Perilipin-2 (Adipophilin) (Adipose differentiation-related protein) (ADRP)</t>
+  </si>
+  <si>
     <t>GALA_MOUSE</t>
   </si>
   <si>
+    <t>Galanin peptides [Cleaved into: Galanin; Galanin message-associated peptide (GMAP)]</t>
+  </si>
+  <si>
     <t>GFPT1_MOUSE</t>
   </si>
   <si>
+    <t>Glutamine--fructose-6-phosphate aminotransferase [isomerizing] 1 (EC 2.6.1.16) (D-fructose-6-phosphate amidotransferase 1) (Glutamine:fructose-6-phosphate amidotransferase 1) (GFAT 1) (GFAT1) (Hexosephosphate aminotransferase 1)</t>
+  </si>
+  <si>
     <t>SCG3_MOUSE</t>
   </si>
   <si>
+    <t>Secretogranin-3 (Secretogranin III) (SgIII)</t>
+  </si>
+  <si>
     <t>HYALP_MOUSE</t>
   </si>
   <si>
+    <t>Hyaluronidase PH-20 (Hyal-PH20) (EC 3.2.1.35) (Hyaluronoglucosaminidase PH-20) (Sperm adhesion molecule 1) (Sperm surface protein PH-20)</t>
+  </si>
+  <si>
     <t>PSN1_MOUSE</t>
   </si>
   <si>
+    <t>Presenilin-1 (PS-1) (EC 3.4.23.-) (Protein S182) [Cleaved into: Presenilin-1 NTF subunit; Presenilin-1 CTF subunit; Presenilin-1 CTF12 (PS1-CTF12)]</t>
+  </si>
+  <si>
     <t>CDN2A_MOUSE</t>
   </si>
   <si>
+    <t>Cyclin-dependent kinase inhibitor 2A (Cyclin-dependent kinase 4 inhibitor A) (CDK4I) (p16-INK4a) (p16-INK4)</t>
+  </si>
+  <si>
     <t>NEK1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase Nek1 (EC 2.7.11.1) (Never in mitosis A-related kinase 1) (NimA-related protein kinase 1)</t>
+  </si>
+  <si>
     <t>FDFT_MOUSE</t>
   </si>
   <si>
+    <t>Squalene synthase (SQS) (SS) (EC 2.5.1.21) (FPP:FPP farnesyltransferase) (Farnesyl-diphosphate farnesyltransferase)</t>
+  </si>
+  <si>
     <t>DSC3_MOUSE</t>
   </si>
   <si>
+    <t>Desmocollin-3</t>
+  </si>
+  <si>
     <t>CDD_MOUSE</t>
   </si>
   <si>
+    <t>Cytidine deaminase (EC 3.5.4.5) (Cytidine aminohydrolase)</t>
+  </si>
+  <si>
     <t>SMO_MOUSE</t>
   </si>
   <si>
+    <t>Smoothened homolog (SMO)</t>
+  </si>
+  <si>
     <t>PCBP4_MOUSE</t>
   </si>
   <si>
+    <t>Poly(rC)-binding protein 4 (Alpha-CP4)</t>
+  </si>
+  <si>
     <t>KCNN3_MOUSE</t>
   </si>
   <si>
+    <t>Small conductance calcium-activated potassium channel protein 3 (SK3) (SKCa 3) (SKCa3) (KCa2.3)</t>
+  </si>
+  <si>
     <t>BTBD1_MOUSE</t>
   </si>
   <si>
+    <t>BTB/POZ domain-containing protein 1 (Glucose signal-repressing protein)</t>
+  </si>
+  <si>
     <t>DJC30_MOUSE</t>
   </si>
   <si>
+    <t>DnaJ homolog subfamily C member 30, mitochondrial (Williams-Beuren syndrome chromosomal region 18 protein homolog)</t>
+  </si>
+  <si>
     <t>ESPL1_MOUSE</t>
   </si>
   <si>
+    <t>Separin (EC 3.4.22.49) (Caspase-like protein ESPL1) (Extra spindle poles-like 1 protein) (Separase)</t>
+  </si>
+  <si>
     <t>MDGA2_MOUSE</t>
   </si>
   <si>
+    <t>MAM domain-containing glycosylphosphatidylinositol anchor protein 2 (MAM domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>WDR5_MOUSE</t>
   </si>
   <si>
+    <t>WD repeat-containing protein 5 (BMP2-induced 3-kb gene protein) (WD repeat-containing protein BIG-3)</t>
+  </si>
+  <si>
     <t>TBPL1_MOUSE</t>
   </si>
   <si>
+    <t>TATA box-binding protein-like protein 1 (TBP-like protein 1) (21 kDa TBP-like protein) (TATA box-binding protein-related factor 2) (TBP-related factor 2) (TBP-like factor) (TBP-related protein)</t>
+  </si>
+  <si>
     <t>IPKA_MOUSE</t>
   </si>
   <si>
+    <t>cAMP-dependent protein kinase inhibitor alpha (PKI-alpha) (cAMP-dependent protein kinase inhibitor, muscle/brain isoform)</t>
+  </si>
+  <si>
     <t>SBDS_MOUSE</t>
   </si>
   <si>
+    <t>Ribosome maturation protein SBDS (Protein 22A3) (Shwachman-Bodian-Diamond syndrome protein homolog)</t>
+  </si>
+  <si>
     <t>DCC_MOUSE</t>
   </si>
   <si>
+    <t>Netrin receptor DCC (Tumor suppressor protein DCC)</t>
+  </si>
+  <si>
     <t>PTPRV_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein phosphatase V (R-PTP-V) (EC 3.1.3.48) (Embryonic stem cell protein-tyrosine phosphatase) (ES cell phosphatase)</t>
+  </si>
+  <si>
     <t>CUX2_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein cut-like 2 (Homeobox protein Cux-2)</t>
+  </si>
+  <si>
     <t>HINT1_MOUSE</t>
   </si>
   <si>
+    <t>Histidine triad nucleotide-binding protein 1 (EC 3.-.-.-) (Adenosine 5'-monophosphoramidase) (Protein kinase C inhibitor 1) (Protein kinase C-interacting protein 1) (PKCI-1)</t>
+  </si>
+  <si>
     <t>DCUP_MOUSE</t>
   </si>
   <si>
+    <t>Uroporphyrinogen decarboxylase (UPD) (URO-D) (EC 4.1.1.37)</t>
+  </si>
+  <si>
     <t>ERG_MOUSE</t>
   </si>
   <si>
+    <t>Transcriptional regulator ERG</t>
+  </si>
+  <si>
     <t>BGH3_MOUSE</t>
   </si>
   <si>
+    <t>Transforming growth factor-beta-induced protein ig-h3 (Beta ig-h3)</t>
+  </si>
+  <si>
     <t>PRKDC_MOUSE</t>
   </si>
   <si>
+    <t>DNA-dependent protein kinase catalytic subunit (DNA-PK catalytic subunit) (DNA-PKcs) (EC 2.7.11.1) (p460)</t>
+  </si>
+  <si>
     <t>GCNT2_MOUSE</t>
   </si>
   <si>
+    <t>N-acetyllactosaminide beta-1,6-N-acetylglucosaminyl-transferase (N-acetylglucosaminyltransferase) (EC 2.4.1.150) (I-branching enzyme) (IGNT) (Large I antigen-forming beta-1,6-N-acetylglucosaminyltransferase)</t>
+  </si>
+  <si>
     <t>AMD_MOUSE</t>
   </si>
   <si>
+    <t>Peptidyl-glycine alpha-amidating monooxygenase (PAM) [Includes: Peptidylglycine alpha-hydroxylating monooxygenase (PHM) (EC 1.14.17.3); Peptidyl-alpha-hydroxyglycine alpha-amidating lyase (EC 4.3.2.5) (Peptidylamidoglycolate lyase) (PAL)]</t>
+  </si>
+  <si>
     <t>THIOM_MOUSE</t>
   </si>
   <si>
+    <t>Thioredoxin, mitochondrial (MTRX) (Mt-Trx) (Thioredoxin-2)</t>
+  </si>
+  <si>
     <t>SMRC1_MOUSE</t>
   </si>
   <si>
+    <t>SWI/SNF complex subunit SMARCC1 (BRG1-associated factor 155) (SWI/SNF complex 155 kDa subunit) (SWI/SNF-related matrix-associated actin-dependent regulator of chromatin subfamily C member 1) (SWI3-related protein) (BAF155)</t>
+  </si>
+  <si>
     <t>XRN1_MOUSE</t>
   </si>
   <si>
+    <t>5'-3' exoribonuclease 1 (mXRN1) (EC 3.1.13.-) (Protein Dhm2) (Strand-exchange protein 1 homolog)</t>
+  </si>
+  <si>
     <t>FLT3_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein kinase FLT3 (EC 2.7.10.1) (FL cytokine receptor) (Fetal liver kinase 2) (FLK-2) (Fms-like tyrosine kinase 3) (FLT-3) (Tyrosine-protein kinase receptor flk-2) (CD antigen CD135)</t>
+  </si>
+  <si>
     <t>ITA4_MOUSE</t>
   </si>
   <si>
+    <t>Integrin alpha-4 (CD49 antigen-like family member D) (Integrin alpha-IV) (Lymphocyte Peyer patch adhesion molecules subunit alpha) (LPAM subunit alpha) (VLA-4 subunit alpha) (CD antigen CD49d)</t>
+  </si>
+  <si>
     <t>GRB7_MOUSE</t>
   </si>
   <si>
+    <t>Growth factor receptor-bound protein 7 (Epidermal growth factor receptor GRB-7) (GRB7 adapter protein)</t>
+  </si>
+  <si>
     <t>RCN1_MOUSE</t>
   </si>
   <si>
+    <t>Reticulocalbin-1</t>
+  </si>
+  <si>
     <t>FMN1_MOUSE</t>
   </si>
   <si>
+    <t>Formin-1 (Limb deformity protein)</t>
+  </si>
+  <si>
     <t>LARP7_MOUSE</t>
   </si>
   <si>
+    <t>La-related protein 7 (La ribonucleoprotein domain family member 7)</t>
+  </si>
+  <si>
     <t>FS2P1_MOUSE</t>
   </si>
   <si>
+    <t>Fatty acid desaturase 2-like protein FADS2P1</t>
+  </si>
+  <si>
     <t>A4GCT_MOUSE</t>
   </si>
   <si>
+    <t>Alpha-1,4-N-acetylglucosaminyltransferase (Alpha4GnT) (EC 2.4.1.-)</t>
+  </si>
+  <si>
     <t>PATL1_MOUSE</t>
   </si>
   <si>
+    <t>Protein PAT1 homolog 1 (PAT1-like protein 1) (Protein PAT1 homolog b) (Pat1b)</t>
+  </si>
+  <si>
     <t>NLRX1_MOUSE</t>
   </si>
   <si>
+    <t>NLR family member X1</t>
+  </si>
+  <si>
     <t>MILK2_MOUSE</t>
   </si>
   <si>
+    <t>MICAL-like protein 2 (Junctional Rab13-binding protein) (Molecule interacting with CasL-like 2) (MICAL-L2)</t>
+  </si>
+  <si>
     <t>ZEP2_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor HIVEP2 (Human immunodeficiency virus type I enhancer-binding protein 2 homolog) (Myc intron-binding protein 1) (MIBP-1)</t>
+  </si>
+  <si>
     <t>COG7_MOUSE</t>
   </si>
   <si>
+    <t>Conserved oligomeric Golgi complex subunit 7 (COG complex subunit 7) (Component of oligomeric Golgi complex 7)</t>
+  </si>
+  <si>
     <t>FCHO2_MOUSE</t>
   </si>
   <si>
+    <t>F-BAR domain only protein 2</t>
+  </si>
+  <si>
     <t>TET1_MOUSE</t>
   </si>
   <si>
+    <t>Methylcytosine dioxygenase TET1 (EC 1.14.11.n2) (CXXC-type zinc finger protein 6) (Ten-eleven translocation 1 gene protein homolog)</t>
+  </si>
+  <si>
     <t>B3GN6_MOUSE</t>
   </si>
   <si>
+    <t>Acetylgalactosaminyl-O-glycosyl-glycoprotein beta-1,3-N-acetylglucosaminyltransferase (EC 2.4.1.147) (Core 3 synthase) (UDP-GlcNAc:betaGal beta-1,3-N-acetylglucosaminyltransferase 6) (BGnT-6) (Beta-1,3-Gn-T6) (Beta-1,3-N-acetylglucosaminyltransferase 6) (Beta3Gn-T6)</t>
+  </si>
+  <si>
     <t>I4E1B_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic translation initiation factor 4E type 1B (Oocyte-specific eukaryotic translation initiation factor 4E-like)</t>
+  </si>
+  <si>
     <t>CD046_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C4orf46 homolog</t>
+  </si>
+  <si>
     <t>PDP1_MOUSE</t>
   </si>
   <si>
+    <t>[Pyruvate dehydrogenase [acetyl-transferring]]-phosphatase 1, mitochondrial (PDP 1) (EC 3.1.3.43) (Protein phosphatase 2C) (Pyruvate dehydrogenase phosphatase catalytic subunit 1) (PDPC 1)</t>
+  </si>
+  <si>
     <t>GAK1A_MOUSE</t>
   </si>
   <si>
+    <t>Golgi-associated kinase 1A (Protein FAM198A)</t>
+  </si>
+  <si>
     <t>TTC9A_MOUSE</t>
   </si>
   <si>
+    <t>Tetratricopeptide repeat protein 9A (TPR repeat protein 9A)</t>
+  </si>
+  <si>
     <t>GRM2A_MOUSE</t>
   </si>
   <si>
+    <t>GRAM domain-containing protein 2A (GRAM domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>PLCH1_MOUSE</t>
   </si>
   <si>
+    <t>1-phosphatidylinositol 4,5-bisphosphate phosphodiesterase eta-1 (EC 3.1.4.11) (Phosphoinositide phospholipase C-eta-1) (Phospholipase C-eta-1) (PLC-eta-1) (Phospholipase C-like protein 3) (PLC-L3)</t>
+  </si>
+  <si>
     <t>R3HD4_MOUSE</t>
   </si>
   <si>
+    <t>R3H domain-containing protein 4</t>
+  </si>
+  <si>
     <t>TRI67_MOUSE</t>
   </si>
   <si>
+    <t>Tripartite motif-containing protein 67</t>
+  </si>
+  <si>
     <t>GALNS_MOUSE</t>
   </si>
   <si>
+    <t>N-acetylgalactosamine-6-sulfatase (EC 3.1.6.4) (Chondroitinsulfatase) (Chondroitinase) (Galactose-6-sulfate sulfatase) (N-acetylgalactosamine-6-sulfate sulfatase) (GalNAc6S sulfatase)</t>
+  </si>
+  <si>
     <t>RASF5_MOUSE</t>
   </si>
   <si>
+    <t>Ras association domain-containing protein 5 (New ras effector 1) (Regulator for cell adhesion and polarization enriched in lymphoid tissues) (RAPL)</t>
+  </si>
+  <si>
     <t>AN13B_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein 13B</t>
+  </si>
+  <si>
     <t>XKR2_MOUSE</t>
   </si>
   <si>
+    <t>XK-related protein 2 (X Kell blood group-related, X-linked)</t>
+  </si>
+  <si>
     <t>G2E3_MOUSE</t>
   </si>
   <si>
+    <t>G2/M phase-specific E3 ubiquitin-protein ligase (EC 2.3.2.26) (G2/M phase-specific HECT-type E3 ubiquitin transferase)</t>
+  </si>
+  <si>
     <t>ANR40_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein 40</t>
+  </si>
+  <si>
     <t>NPT3_MOUSE</t>
   </si>
   <si>
+    <t>Sodium-dependent phosphate transport protein 3 (Na(+)/PI cotransporter 3) (Sodium/phosphate cotransporter 3) (Solute carrier family 17 member 2)</t>
+  </si>
+  <si>
     <t>SERC4_MOUSE</t>
   </si>
   <si>
+    <t>Serine incorporator 4</t>
+  </si>
+  <si>
     <t>AKAP4_MOUSE</t>
   </si>
   <si>
+    <t>A-kinase anchor protein 4 (AKAP-4) (A-kinase anchor protein 82 kDa) (AKAP 82) (mAKAP82) (FSC1) (Major sperm fibrous sheath protein) (Protein kinase A-anchoring protein 4) (PRKA4) (p82)</t>
+  </si>
+  <si>
     <t>RGL1_MOUSE</t>
   </si>
   <si>
+    <t>Ral guanine nucleotide dissociation stimulator-like 1 (RalGDS-like 1)</t>
+  </si>
+  <si>
     <t>TBCD1_MOUSE</t>
   </si>
   <si>
+    <t>TBC1 domain family member 1</t>
+  </si>
+  <si>
     <t>NAB2_MOUSE</t>
   </si>
   <si>
+    <t>NGFI-A-binding protein 2 (EGR-1-binding protein 2)</t>
+  </si>
+  <si>
     <t>ICLN_MOUSE</t>
   </si>
   <si>
+    <t>Methylosome subunit pICln (Chloride channel, nucleotide sensitive 1A) (Chloride conductance regulatory protein ICln) (I(Cln)) (Chloride ion current inducer protein) (ClCI)</t>
+  </si>
+  <si>
     <t>PDE3B_MOUSE</t>
   </si>
   <si>
+    <t>cGMP-inhibited 3',5'-cyclic phosphodiesterase B (EC 3.1.4.17) (CGIPDE1) (Cyclic GMP-inhibited phosphodiesterase B) (CGI-PDE B)</t>
+  </si>
+  <si>
     <t>ITIH3_MOUSE</t>
   </si>
   <si>
+    <t>Inter-alpha-trypsin inhibitor heavy chain H3 (ITI heavy chain H3) (ITI-HC3) (Inter-alpha-inhibitor heavy chain 3)</t>
+  </si>
+  <si>
     <t>I10R1_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-10 receptor subunit alpha (IL-10 receptor subunit alpha) (IL-10R subunit alpha) (IL-10RA) (CDw210a) (Interleukin-10 receptor subunit 1) (IL-10R subunit 1) (IL-10R1) (CD antigen CD210)</t>
+  </si>
+  <si>
     <t>JAK3_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase JAK3 (EC 2.7.10.2) (Janus kinase 3) (JAK-3)</t>
+  </si>
+  <si>
     <t>SEM4A_MOUSE</t>
   </si>
   <si>
+    <t>Semaphorin-4A (Semaphorin-B) (Sema B)</t>
+  </si>
+  <si>
     <t>SOS1_MOUSE</t>
   </si>
   <si>
+    <t>Son of sevenless homolog 1 (SOS-1) (mSOS-1)</t>
+  </si>
+  <si>
     <t>TGON2_MOUSE</t>
   </si>
   <si>
+    <t>Trans-Golgi network integral membrane protein 2 (TGN38B)</t>
+  </si>
+  <si>
     <t>HXA13_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein Hox-A13 (Homeobox protein Hox-1.10)</t>
+  </si>
+  <si>
     <t>CCD18_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 18</t>
+  </si>
+  <si>
     <t>DOPO_MOUSE</t>
   </si>
   <si>
+    <t>Dopamine beta-hydroxylase (EC 1.14.17.1) (Dopamine beta-monooxygenase) [Cleaved into: Soluble dopamine beta-hydroxylase]</t>
+  </si>
+  <si>
     <t>ZEB1_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger E-box-binding homeobox 1 (Delta EF1) (Transcription factor 8) (TCF-8) (Zinc finger homeobox protein 1a) (MEB1)</t>
+  </si>
+  <si>
     <t>PDE1C_MOUSE</t>
   </si>
   <si>
+    <t>Calcium/calmodulin-dependent 3',5'-cyclic nucleotide phosphodiesterase 1C (Cam-PDE 1C) (3',5'-cyclic-AMP phosphodiesterase) (EC 3.1.4.-) (3',5'-cyclic-GMP phosphodiesterase) (EC 3.1.4.35)</t>
+  </si>
+  <si>
     <t>NAL4E_MOUSE</t>
   </si>
   <si>
+    <t>NACHT, LRR and PYD domains-containing protein 4E (NALP-epsilon)</t>
+  </si>
+  <si>
     <t>RIPR1_MOUSE</t>
   </si>
   <si>
+    <t>Rho family-interacting cell polarization regulator 1</t>
+  </si>
+  <si>
     <t>LTN1_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase listerin (EC 2.3.2.27) (RING finger protein 160) (RING-type E3 ubiquitin transferase listerin) (Zinc finger protein 294) (Zfp-294)</t>
+  </si>
+  <si>
     <t>RFTN1_MOUSE</t>
   </si>
   <si>
+    <t>Raftlin (Raft-linking protein)</t>
+  </si>
+  <si>
     <t>CS057_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C19orf57 homolog</t>
+  </si>
+  <si>
     <t>CEP78_MOUSE</t>
   </si>
   <si>
+    <t>Centrosomal protein of 78 kDa (Cep78)</t>
+  </si>
+  <si>
     <t>PTPC1_MOUSE</t>
   </si>
   <si>
+    <t>Protein tyrosine phosphatase domain-containing protein 1 (EC 3.1.3.-)</t>
+  </si>
+  <si>
     <t>PIANP_MOUSE</t>
   </si>
   <si>
+    <t>PILR alpha-associated neural protein (Brain protein 1) (PILR-associating neural protein) (Paired immunoglobin-like type 2 receptor-associating neural protein)</t>
+  </si>
+  <si>
     <t>PHLB1_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology-like domain family B member 1 (Protein LL5-alpha)</t>
+  </si>
+  <si>
     <t>ABHDA_MOUSE</t>
   </si>
   <si>
+    <t>Mycophenolic acid acyl-glucuronide esterase, mitochondrial (EC 3.1.1.93) (Alpha/beta hydrolase domain-containing protein 10) (Abhydrolase domain-containing protein 10)</t>
+  </si>
+  <si>
     <t>AT8B3_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipid-transporting ATPase IK (EC 7.6.2.1) (ATPase, class I, type 8B, member 3) (Sperm aminophospholipid transporter) (SAPLT)</t>
+  </si>
+  <si>
     <t>CNDD3_MOUSE</t>
   </si>
   <si>
+    <t>Condensin-2 complex subunit D3 (Non-SMC condensin II complex subunit D3)</t>
+  </si>
+  <si>
     <t>S39AE_MOUSE</t>
   </si>
   <si>
+    <t>Metal cation symporter ZIP14 (Factor for adipocyte differentiation 123) (FAD-123) (Solute carrier family 39 member 14) (Zrt- and Irt-like protein 14) (ZIP-14)</t>
+  </si>
+  <si>
     <t>TR114_MOUSE</t>
   </si>
   <si>
+    <t>Taste receptor type 2 member 114 (T2R114) (mT2R46)</t>
+  </si>
+  <si>
     <t>ASAP2_MOUSE</t>
   </si>
   <si>
+    <t>Arf-GAP with SH3 domain, ANK repeat and PH domain-containing protein 2 (Development and differentiation-enhancing factor 2) (Paxillin-associated protein with ARF GAP activity 3) (PAG3) (Pyk2 C-terminus-associated protein) (PAP)</t>
+  </si>
+  <si>
     <t>RIMB1_MOUSE</t>
   </si>
   <si>
+    <t>Peripheral-type benzodiazepine receptor-associated protein 1 (PRAX-1) (Peripheral benzodiazepine receptor-interacting protein) (PBR-IP) (RIMS-binding protein 1) (RIM-BP1) (TSPO-associated protein 1)</t>
+  </si>
+  <si>
     <t>PKHA6_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family A member 6 (PH domain-containing family A member 6) (Phosphoinositol 3-phosphate-binding protein 3) (PEPP-3)</t>
+  </si>
+  <si>
     <t>INT7_MOUSE</t>
   </si>
   <si>
+    <t>Integrator complex subunit 7 (Int7)</t>
+  </si>
+  <si>
     <t>TBATA_MOUSE</t>
   </si>
   <si>
+    <t>Protein TBATA (Protein SPATIAL) (Stromal protein associated with thymii and lymph node) (Thymus, brain and testes-associated protein)</t>
+  </si>
+  <si>
     <t>CP110_MOUSE</t>
   </si>
   <si>
+    <t>Centriolar coiled-coil protein of 110 kDa (Centrosomal protein of 110 kDa) (Cep110) (Cp110)</t>
+  </si>
+  <si>
     <t>PKHM2_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family M member 2 (PH domain-containing family M member 2)</t>
+  </si>
+  <si>
     <t>BAIP3_MOUSE</t>
   </si>
   <si>
+    <t>BAI1-associated protein 3 (BAP3) (Brain-specific angiogenesis inhibitor I-associated protein 3) (Baiap3)</t>
+  </si>
+  <si>
     <t>BANK1_MOUSE</t>
   </si>
   <si>
+    <t>B-cell scaffold protein with ankyrin repeats (Protein AVIEF)</t>
+  </si>
+  <si>
     <t>TNC18_MOUSE</t>
   </si>
   <si>
+    <t>Trinucleotide repeat-containing gene 18 protein (Zinc finger protein 469)</t>
+  </si>
+  <si>
     <t>TOPRS_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase Topors (EC 2.3.2.27) (RING-type E3 ubiquitin transferase Topors) (SUMO1-protein E3 ligase Topors) (Topoisomerase I-binding RING finger protein) (Topoisomerase I-binding arginine/serine-rich protein) (Tumor suppressor p53-binding protein 3) (p53-binding protein 3) (p53BP3)</t>
+  </si>
+  <si>
     <t>SNX32_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-32 (Sorting nexin-6B)</t>
+  </si>
+  <si>
     <t>CF299_MOUSE</t>
   </si>
   <si>
+    <t>Cilia- and flagella-associated protein 299</t>
+  </si>
+  <si>
     <t>MPP10_MOUSE</t>
   </si>
   <si>
+    <t>U3 small nucleolar ribonucleoprotein protein MPP10 (M phase phosphoprotein 10)</t>
+  </si>
+  <si>
     <t>SYQ_MOUSE</t>
   </si>
   <si>
+    <t>Glutamine--tRNA ligase (EC 6.1.1.18) (Glutaminyl-tRNA synthetase) (GlnRS)</t>
+  </si>
+  <si>
     <t>MD12L_MOUSE</t>
   </si>
   <si>
+    <t>Mediator of RNA polymerase II transcription subunit 12-like protein (Mediator complex subunit 12-like protein)</t>
+  </si>
+  <si>
     <t>ZDH14_MOUSE</t>
   </si>
   <si>
+    <t>Probable palmitoyltransferase ZDHHC14 (EC 2.3.1.225) (NEW1 domain-containing protein) (NEW1CP) (Zinc finger DHHC domain-containing protein 14) (DHHC-14)</t>
+  </si>
+  <si>
     <t>DPP9_MOUSE</t>
   </si>
   <si>
+    <t>Dipeptidyl peptidase 9 (DP9) (EC 3.4.14.5) (Dipeptidyl peptidase IX) (DPP IX) (Dipeptidyl peptidase-like protein 9) (DPLP9)</t>
+  </si>
+  <si>
     <t>PMGT2_MOUSE</t>
   </si>
   <si>
+    <t>Protein O-linked-mannose beta-1,4-N-acetylglucosaminyltransferase 2 (POMGnT2) (EC 2.4.1.312) (Extracellular O-linked N-acetylglucosamine transferase-like) (Glycosyltransferase-like domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>IFFO1_MOUSE</t>
   </si>
   <si>
+    <t>Intermediate filament family orphan 1</t>
+  </si>
+  <si>
     <t>NKRF_MOUSE</t>
   </si>
   <si>
+    <t>NF-kappa-B-repressing factor (NFkB-repressing factor) (Transcription factor NRF)</t>
+  </si>
+  <si>
     <t>ADCYA_MOUSE</t>
   </si>
   <si>
+    <t>Adenylate cyclase type 10 (EC 4.6.1.1) (Germ cell soluble adenylyl cyclase) (sAC) (Testicular soluble adenylyl cyclase)</t>
+  </si>
+  <si>
     <t>AIDA_MOUSE</t>
   </si>
   <si>
+    <t>Axin interactor, dorsalization-associated protein (Axin interaction partner and dorsalization antagonist)</t>
+  </si>
+  <si>
     <t>CWC22_MOUSE</t>
   </si>
   <si>
+    <t>Pre-mRNA-splicing factor CWC22 homolog (Nucampholin homolog)</t>
+  </si>
+  <si>
     <t>TBCEL_MOUSE</t>
   </si>
   <si>
+    <t>Tubulin-specific chaperone cofactor E-like protein (Leucine-rich repeat-containing protein 35)</t>
+  </si>
+  <si>
     <t>ELFN1_MOUSE</t>
   </si>
   <si>
+    <t>Protein ELFN1 (Extracellular leucine-rich repeat and fibronectin type-III domain-containing protein 1) (Protein phosphatase 1 regulatory subunit 28)</t>
+  </si>
+  <si>
     <t>EPHB1_MOUSE</t>
   </si>
   <si>
+    <t>Ephrin type-B receptor 1 (EC 2.7.10.1)</t>
+  </si>
+  <si>
     <t>DCNL4_MOUSE</t>
   </si>
   <si>
+    <t>DCN1-like protein 4 (DCUN1 domain-containing protein 4) (Defective in cullin neddylation protein 1-like protein 4)</t>
+  </si>
+  <si>
     <t>CC150_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 150</t>
+  </si>
+  <si>
     <t>CCD63_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 63</t>
+  </si>
+  <si>
     <t>FM25C_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM25C</t>
+  </si>
+  <si>
     <t>P3H2_MOUSE</t>
   </si>
   <si>
+    <t>Prolyl 3-hydroxylase 2 (EC 1.14.11.7) (Leprecan-like protein 1)</t>
+  </si>
+  <si>
     <t>TPH2_MOUSE</t>
   </si>
   <si>
+    <t>Tryptophan 5-hydroxylase 2 (EC 1.14.16.4) (Neuronal tryptophan hydroxylase) (Tryptophan 5-monooxygenase 2)</t>
+  </si>
+  <si>
     <t>SUGP1_MOUSE</t>
   </si>
   <si>
+    <t>SURP and G-patch domain-containing protein 1 (Splicing factor 4)</t>
+  </si>
+  <si>
     <t>TRI32_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase TRIM32 (EC 2.3.2.27) (RING-type E3 ubiquitin transferase TRIM32) (Tripartite motif-containing protein 32)</t>
+  </si>
+  <si>
     <t>PHC3_MOUSE</t>
   </si>
   <si>
+    <t>Polyhomeotic-like protein 3</t>
+  </si>
+  <si>
     <t>D2HDH_MOUSE</t>
   </si>
   <si>
+    <t>D-2-hydroxyglutarate dehydrogenase, mitochondrial (EC 1.1.99.-)</t>
+  </si>
+  <si>
     <t>S4A8_MOUSE</t>
   </si>
   <si>
+    <t>Electroneutral sodium bicarbonate exchanger 1 (Electroneutral Na+-driven Cl-HCO3 exchanger) (Solute carrier family 4 member 8) (k-NBC3)</t>
+  </si>
+  <si>
     <t>UN13C_MOUSE</t>
   </si>
   <si>
+    <t>Protein unc-13 homolog C (Munc13-3)</t>
+  </si>
+  <si>
     <t>RN208_MOUSE</t>
   </si>
   <si>
+    <t>RING finger protein 208</t>
+  </si>
+  <si>
     <t>ALG3_MOUSE</t>
   </si>
   <si>
+    <t>Dol-P-Man:Man(5)GlcNAc(2)-PP-Dol alpha-1,3-mannosyltransferase (EC 2.4.1.258) (Asparagine-linked glycosylation protein 3 homolog) (Dol-P-Man-dependent alpha(1-3)-mannosyltransferase) (Dolichyl-P-Man:Man(5)GlcNAc(2)-PP-dolichyl mannosyltransferase) (Dolichyl-phosphate-mannose--glycolipid alpha-mannosyltransferase) (Not56-like protein)</t>
+  </si>
+  <si>
     <t>FBH1_MOUSE</t>
   </si>
   <si>
+    <t>F-box DNA helicase 1 (EC 3.6.4.12) (F-box only protein 18)</t>
+  </si>
+  <si>
     <t>PLCD3_MOUSE</t>
   </si>
   <si>
+    <t>1-phosphatidylinositol 4,5-bisphosphate phosphodiesterase delta-3 (EC 3.1.4.11) (Phosphoinositide phospholipase C-delta-3) (Phospholipase C-delta-3) (PLC-delta-3)</t>
+  </si>
+  <si>
     <t>ZN668_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 668</t>
+  </si>
+  <si>
     <t>AT10D_MOUSE</t>
   </si>
   <si>
+    <t>Probable phospholipid-transporting ATPase VD (EC 7.6.2.1) (ATPase class V type 10D) (P4-ATPase flippase complex alpha subunit ATP10D)</t>
+  </si>
+  <si>
     <t>CYTM1_MOUSE</t>
   </si>
   <si>
+    <t>Cysteine-rich and transmembrane domain-containing protein 1</t>
+  </si>
+  <si>
     <t>KCNQ3_MOUSE</t>
   </si>
   <si>
+    <t>Potassium voltage-gated channel subfamily KQT member 3 (KQT-like 3) (Potassium channel subunit alpha KvLQT3) (Voltage-gated potassium channel subunit Kv7.3)</t>
+  </si>
+  <si>
     <t>GLCTK_MOUSE</t>
   </si>
   <si>
+    <t>Glycerate kinase (EC 2.7.1.31)</t>
+  </si>
+  <si>
     <t>MFRN2_MOUSE</t>
   </si>
   <si>
+    <t>Mitoferrin-2 (Mitochondrial RNA-splicing protein 3/4 homolog) (MRS3/4) (Mitochondrial iron transporter 2) (Solute carrier family 25 member 28)</t>
+  </si>
+  <si>
     <t>ERO1A_MOUSE</t>
   </si>
   <si>
+    <t>ERO1-like protein alpha (ERO1-L) (ERO1-L-alpha) (EC 1.8.4.-) (Endoplasmic reticulum oxidoreductase alpha) (Endoplasmic reticulum oxidoreductin-1-like protein) (Oxidoreductin-1-L-alpha)</t>
+  </si>
+  <si>
     <t>NIBA2_MOUSE</t>
   </si>
   <si>
+    <t>Protein Niban 2 (Meg-3) (Niban-like protein 1) (Protein FAM129B)</t>
+  </si>
+  <si>
     <t>IMPG1_MOUSE</t>
   </si>
   <si>
+    <t>Interphotoreceptor matrix proteoglycan 1 (Interphotoreceptor matrix proteoglycan of 150 kDa) (IPM-150) (Sialoprotein associated with cones and rods)</t>
+  </si>
+  <si>
     <t>CDC16_MOUSE</t>
   </si>
   <si>
+    <t>Cell division cycle protein 16 homolog (Anaphase-promoting complex subunit 6) (APC6) (Cyclosome subunit 6)</t>
+  </si>
+  <si>
     <t>ABCA3_MOUSE</t>
   </si>
   <si>
+    <t>ATP-binding cassette sub-family A member 3</t>
+  </si>
+  <si>
     <t>ABHD4_MOUSE</t>
   </si>
   <si>
+    <t>(Lyso)-N-acylphosphatidylethanolamine lipase (EC 3.1.1.-) (Alpha/beta hydrolase domain-containing protein 4) (Abhydrolase domain-containing protein 4) (Alpha/beta-hydrolase 4)</t>
+  </si>
+  <si>
     <t>TTC8_MOUSE</t>
   </si>
   <si>
+    <t>Tetratricopeptide repeat protein 8 (TPR repeat protein 8) (Bardet-Biedl syndrome 8 protein homolog)</t>
+  </si>
+  <si>
     <t>PHIP_MOUSE</t>
   </si>
   <si>
+    <t>PH-interacting protein (PHIP) (IRS-1 PH domain-binding protein) (Neuronal differentiation-related protein) (NDRP) (WD repeat-containing protein 11)</t>
+  </si>
+  <si>
     <t>ZDHC5_MOUSE</t>
   </si>
   <si>
+    <t>Palmitoyltransferase ZDHHC5 (EC 2.3.1.225) (Zinc finger DHHC domain-containing protein 5) (DHHC-5)</t>
+  </si>
+  <si>
     <t>O1052_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 1052 (Olfactory receptor 172-1)</t>
+  </si>
+  <si>
     <t>FLNC_MOUSE</t>
   </si>
   <si>
+    <t>Filamin-C (FLN-C) (ABP-280-like protein) (ABP-L) (Actin-binding-like protein) (Filamin-2) (Gamma-filamin)</t>
+  </si>
+  <si>
     <t>OAS1D_MOUSE</t>
   </si>
   <si>
+    <t>Inactive 2'-5'-oligoadenylate synthase 1D</t>
+  </si>
+  <si>
     <t>CHIN_MOUSE</t>
   </si>
   <si>
+    <t>N-chimaerin (A-chimaerin) (Alpha-chimerin) (N-chimerin) (NC) (Rho GTPase-activating protein 2)</t>
+  </si>
+  <si>
     <t>FRS3_MOUSE</t>
   </si>
   <si>
+    <t>Fibroblast growth factor receptor substrate 3 (FGFR substrate 3) (FRS2-beta)</t>
+  </si>
+  <si>
     <t>CP4CA_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 4A12A (EC 1.14.14.1) (CYPIVA12)</t>
+  </si>
+  <si>
     <t>RRP1B_MOUSE</t>
   </si>
   <si>
+    <t>Ribosomal RNA processing protein 1 homolog B (RRP1-like protein B)</t>
+  </si>
+  <si>
     <t>BAG2_MOUSE</t>
   </si>
   <si>
+    <t>BAG family molecular chaperone regulator 2 (BAG-2) (Bcl-2-associated athanogene 2)</t>
+  </si>
+  <si>
     <t>CHID1_MOUSE</t>
   </si>
   <si>
+    <t>Chitinase domain-containing protein 1</t>
+  </si>
+  <si>
     <t>ANM7_MOUSE</t>
   </si>
   <si>
+    <t>Protein arginine N-methyltransferase 7 (EC 2.1.1.321) (Histone-arginine N-methyltransferase PRMT7) ([Myelin basic protein]-arginine N-methyltransferase PRMT7)</t>
+  </si>
+  <si>
     <t>TRPM7_MOUSE</t>
   </si>
   <si>
+    <t>Transient receptor potential cation channel subfamily M member 7 (EC 2.7.11.1) (Channel-kinase 1) (Long transient receptor potential channel 7) (LTrpC-7) (LTrpC7) (Transient receptor potential-phospholipase C-interacting kinase) (TRP-PLIK)</t>
+  </si>
+  <si>
     <t>PP16A_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1 regulatory subunit 16A (Myosin phosphatase targeting subunit 3)</t>
+  </si>
+  <si>
     <t>RT4I1_MOUSE</t>
   </si>
   <si>
+    <t>Reticulon-4-interacting protein 1, mitochondrial (NOGO-interacting mitochondrial protein)</t>
+  </si>
+  <si>
     <t>CYBR1_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome b reductase 1 (EC 1.-.-.-) (Duodenal cytochrome b)</t>
+  </si>
+  <si>
     <t>MCLN1_MOUSE</t>
   </si>
   <si>
+    <t>Mucolipin-1 (Mucolipidin) (Transient receptor potential-mucolipin 1) (TRPML1)</t>
+  </si>
+  <si>
     <t>NLGN1_MOUSE</t>
   </si>
   <si>
+    <t>Neuroligin-1</t>
+  </si>
+  <si>
     <t>ZN672_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 672</t>
+  </si>
+  <si>
     <t>TBX19_MOUSE</t>
   </si>
   <si>
+    <t>T-box transcription factor TBX19 (T-box protein 19) (T-box factor, pituitary)</t>
+  </si>
+  <si>
     <t>NOG1_MOUSE</t>
   </si>
   <si>
+    <t>Nucleolar GTP-binding protein 1 (Chronic renal failure gene protein) (GTP-binding protein NGB)</t>
+  </si>
+  <si>
     <t>HPBP1_MOUSE</t>
   </si>
   <si>
+    <t>Hsp70-binding protein 1 (HspBP1) (Heat shock protein-binding protein 1) (Hsp70-interacting protein 1)</t>
+  </si>
+  <si>
     <t>COPRS_MOUSE</t>
   </si>
   <si>
+    <t>Coordinator of PRMT5 and differentiation stimulator (Cooperator of PRMT5)</t>
+  </si>
+  <si>
     <t>NUDC2_MOUSE</t>
   </si>
   <si>
+    <t>NudC domain-containing protein 2</t>
+  </si>
+  <si>
     <t>SPG21_MOUSE</t>
   </si>
   <si>
+    <t>Maspardin (Acid cluster protein 33) (Spastic paraplegia 21 autosomal recessive Mast syndrome protein homolog)</t>
+  </si>
+  <si>
     <t>MTNA_MOUSE</t>
   </si>
   <si>
+    <t>Methylthioribose-1-phosphate isomerase (M1Pi) (MTR-1-P isomerase) (EC 5.3.1.23) (S-methyl-5-thioribose-1-phosphate isomerase) (Translation initiation factor eIF-2B subunit alpha/beta/delta-like protein)</t>
+  </si>
+  <si>
     <t>CATIN_MOUSE</t>
   </si>
   <si>
+    <t>Cactin</t>
+  </si>
+  <si>
     <t>NDUF7_MOUSE</t>
   </si>
   <si>
+    <t>Protein arginine methyltransferase NDUFAF7, mitochondrial (EC 2.1.1.320) (NADH dehydrogenase [ubiquinone] complex I, assembly factor 7) (Protein midA homolog)</t>
+  </si>
+  <si>
     <t>CIA30_MOUSE</t>
   </si>
   <si>
+    <t>Complex I intermediate-associated protein 30, mitochondrial (NADH dehydrogenase [ubiquinone] 1 alpha subcomplex assembly factor 1)</t>
+  </si>
+  <si>
     <t>CNIH4_MOUSE</t>
   </si>
   <si>
+    <t>Protein cornichon homolog 4 (CNIH-4) (Cornichon family AMPA receptor auxiliary protein 4)</t>
+  </si>
+  <si>
     <t>LBH_MOUSE</t>
   </si>
   <si>
+    <t>Protein LBH (Limb bud and heart-expressed protein)</t>
+  </si>
+  <si>
     <t>SPCS2_MOUSE</t>
   </si>
   <si>
+    <t>Signal peptidase complex subunit 2 (EC 3.4.-.-) (Microsomal signal peptidase 25 kDa subunit) (SPase 25 kDa subunit)</t>
+  </si>
+  <si>
     <t>THUM2_MOUSE</t>
   </si>
   <si>
+    <t>THUMP domain-containing protein 2</t>
+  </si>
+  <si>
     <t>RM14_MOUSE</t>
   </si>
   <si>
+    <t>39S ribosomal protein L14, mitochondrial (L14mt) (MRP-L14)</t>
+  </si>
+  <si>
     <t>NXP20_MOUSE</t>
   </si>
   <si>
+    <t>Protein Noxp20 (Nervous system overexpressed protein 20) (Protein FAM114A1)</t>
+  </si>
+  <si>
     <t>KIF12_MOUSE</t>
   </si>
   <si>
+    <t>Kinesin-like protein KIF12</t>
+  </si>
+  <si>
     <t>NEUT_MOUSE</t>
   </si>
   <si>
+    <t>Neurotensin/neuromedin N [Cleaved into: Large neuromedin N (NmN-125); Neuromedin N (NN) (NmN); Neurotensin (NT); Tail peptide]</t>
+  </si>
+  <si>
     <t>GLTL5_MOUSE</t>
   </si>
   <si>
+    <t>Inactive polypeptide N-acetylgalactosaminyltransferase-like protein 5 (Polypeptide GalNAc transferase 15) (GalNAc-T15) (pp-GaNTase 15) (Protein-UDP acetylgalactosaminyltransferase 15) (UDP-GalNAc:polypeptide N-acetylgalactosaminyltransferase 15)</t>
+  </si>
+  <si>
     <t>MYO1H_MOUSE</t>
   </si>
   <si>
+    <t>Unconventional myosin-Ih</t>
+  </si>
+  <si>
     <t>ECHD3_MOUSE</t>
   </si>
   <si>
+    <t>Enoyl-CoA hydratase domain-containing protein 3, mitochondrial</t>
+  </si>
+  <si>
     <t>LYSM2_MOUSE</t>
   </si>
   <si>
+    <t>LysM and putative peptidoglycan-binding domain-containing protein 2</t>
+  </si>
+  <si>
     <t>HM13_MOUSE</t>
   </si>
   <si>
+    <t>Minor histocompatibility antigen H13 (EC 3.4.23.-) (Presenilin-like protein 3) (Signal peptide peptidase)</t>
+  </si>
+  <si>
     <t>NUD12_MOUSE</t>
   </si>
   <si>
+    <t>Peroxisomal NADH pyrophosphatase NUDT12 (EC 3.6.1.22) (Nucleoside diphosphate-linked moiety X motif 12) (Nudix motif 12)</t>
+  </si>
+  <si>
     <t>GMPR1_MOUSE</t>
   </si>
   <si>
+    <t>GMP reductase 1 (GMPR 1) (EC 1.7.1.7) (Guanosine 5'-monophosphate oxidoreductase 1) (Guanosine monophosphate reductase 1)</t>
+  </si>
+  <si>
     <t>RASF7_MOUSE</t>
   </si>
   <si>
+    <t>Ras association domain-containing protein 7</t>
+  </si>
+  <si>
     <t>TBX18_MOUSE</t>
   </si>
   <si>
+    <t>T-box transcription factor TBX18 (T-box protein 18)</t>
+  </si>
+  <si>
     <t>ELP4_MOUSE</t>
   </si>
   <si>
+    <t>Elongator complex protein 4 (PAX6 neighbor gene protein)</t>
+  </si>
+  <si>
     <t>PARVB_MOUSE</t>
   </si>
   <si>
+    <t>Beta-parvin</t>
+  </si>
+  <si>
     <t>GPR35_MOUSE</t>
   </si>
   <si>
+    <t>G-protein coupled receptor 35 (Kynurenic acid receptor) (KYNA receptor)</t>
+  </si>
+  <si>
     <t>LY96_MOUSE</t>
   </si>
   <si>
+    <t>Lymphocyte antigen 96 (Ly-96) (ESOP-1) (Protein MD-2)</t>
+  </si>
+  <si>
     <t>LTOR2_MOUSE</t>
   </si>
   <si>
+    <t>Ragulator complex protein LAMTOR2 (Endosomal adaptor protein p14) (Late endosomal/lysosomal Mp1-interacting protein) (Late endosomal/lysosomal adaptor and MAPK and MTOR activator 2) (Mitogen-activated protein-binding protein-interacting protein) (Roadblock domain-containing protein 3)</t>
+  </si>
+  <si>
     <t>INO1_MOUSE</t>
   </si>
   <si>
+    <t>Inositol-3-phosphate synthase 1 (IPS 1) (EC 5.5.1.4) (Myo-inositol 1-phosphate synthase) (MI-1-P synthase) (MIP synthase)</t>
+  </si>
+  <si>
     <t>SPHK2_MOUSE</t>
   </si>
   <si>
+    <t>Sphingosine kinase 2 (SK 2) (SPK 2) (EC 2.7.1.91)</t>
+  </si>
+  <si>
     <t>ZC3H8_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger CCCH domain-containing protein 8 (Fetal liver zinc finger protein 1)</t>
+  </si>
+  <si>
     <t>PIGB_MOUSE</t>
   </si>
   <si>
+    <t>GPI mannosyltransferase 3 (EC 2.4.1.-) (GPI mannosyltransferase III) (GPI-MT-III) (Phosphatidylinositol-glycan biosynthesis class B protein) (PIG-B)</t>
+  </si>
+  <si>
     <t>IQGA1_MOUSE</t>
   </si>
   <si>
+    <t>Ras GTPase-activating-like protein IQGAP1</t>
+  </si>
+  <si>
     <t>OLIG1_MOUSE</t>
   </si>
   <si>
+    <t>Oligodendrocyte transcription factor 1 (Oligo1) (Oligodendrocyte-specific bHLH transcription factor 1)</t>
+  </si>
+  <si>
     <t>SPY1_MOUSE</t>
   </si>
   <si>
+    <t>Protein sprouty homolog 1 (Spry-1)</t>
+  </si>
+  <si>
     <t>NR2E3_MOUSE</t>
   </si>
   <si>
+    <t>Photoreceptor-specific nuclear receptor (Nuclear receptor subfamily 2 group E member 3) (Retina-specific nuclear receptor)</t>
+  </si>
+  <si>
     <t>PDZD4_MOUSE</t>
   </si>
   <si>
+    <t>PDZ domain-containing protein 4 (PDZ domain-containing RING finger protein 4-like protein)</t>
+  </si>
+  <si>
     <t>KCC1B_MOUSE</t>
   </si>
   <si>
+    <t>Calcium/calmodulin-dependent protein kinase type 1B (EC 2.7.11.17) (CaM kinase I beta) (CaM kinase IB) (CaM-KI beta) (CaMKI-beta) (Pregnancy up-regulated non-ubiquitously-expressed CaM kinase homolog)</t>
+  </si>
+  <si>
     <t>RGS20_MOUSE</t>
   </si>
   <si>
+    <t>Regulator of G-protein signaling 20 (RGS20) (Regulator of G-protein signaling Z1)</t>
+  </si>
+  <si>
     <t>PLXC1_MOUSE</t>
   </si>
   <si>
+    <t>Plexin-C1 (Virus-encoded semaphorin protein receptor) (CD antigen CD232)</t>
+  </si>
+  <si>
     <t>K2C71_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type II cytoskeletal 71 (Cytokeratin-6G) (CK-6G) (Cytokeratin-71) (CK-71) (Keratin-6G) (K6G) (Keratin-71) (K71) (Type II inner root sheath-specific keratin-K6irs1) (mK6irs) (mK6irs1/Krt2-6g) (Type-II keratin Kb34)</t>
+  </si>
+  <si>
     <t>RHG07_MOUSE</t>
   </si>
   <si>
+    <t>Rho GTPase-activating protein 7 (Deleted in liver cancer 1 protein homolog) (DLC-1) (Rho-type GTPase-activating protein 7) (START domain-containing protein 12) (StARD12) (StAR-related lipid transfer protein 12)</t>
+  </si>
+  <si>
     <t>FOXO3_MOUSE</t>
   </si>
   <si>
+    <t>Forkhead box protein O3</t>
+  </si>
+  <si>
     <t>E2AK1_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic translation initiation factor 2-alpha kinase 1 (EC 2.7.11.1) (Heme-controlled repressor) (HCR) (Heme-regulated eukaryotic initiation factor eIF-2-alpha kinase) (Heme-regulated inhibitor) (Hemin-sensitive initiation factor 2-alpha kinase)</t>
+  </si>
+  <si>
     <t>KCNQ2_MOUSE</t>
+  </si>
+  <si>
+    <t>Potassium voltage-gated channel subfamily KQT member 2 (KQT-like 2) (Potassium channel subunit alpha KvLQT2) (Voltage-gated potassium channel subunit Kv7.2)</t>
   </si>
 </sst>
 </file>
@@ -1164,1375 +1983,2194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A273"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>542</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
